--- a/data/khmer_coordinates_with_addresses.xlsx
+++ b/data/khmer_coordinates_with_addresses.xlsx
@@ -58,7 +58,7 @@
     <t>Phnom Penh, 120102, Cambodia</t>
   </si>
   <si>
-    <t/>
+    <t>Khan Boeng Keng Kang</t>
   </si>
   <si>
     <t>Phnom Penh</t>
